--- a/Plots/Berechnungszeit.xlsx
+++ b/Plots/Berechnungszeit.xlsx
@@ -170,16 +170,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5216.7</c:v>
+                  <c:v>5.2167000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11065</c:v>
+                  <c:v>11.065</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70940</c:v>
+                  <c:v>70.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>785371</c:v>
+                  <c:v>785.37099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,7 +281,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -327,7 +327,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -400,7 +400,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0E+00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1390,7 +1390,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1408,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>5216.7</v>
+        <v>5.2167000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>11065</v>
+        <v>11.065</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>70940</v>
+        <v>70.94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>128</v>
       </c>
       <c r="B5">
-        <v>785371</v>
+        <v>785.37099999999998</v>
       </c>
     </row>
   </sheetData>
